--- a/JoinTech/notas_planilha_modelo2.xlsx
+++ b/JoinTech/notas_planilha_modelo2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giofr\Desktop\ctp desafio\CTP-1\JoinTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E958EF6-90C6-4543-B59E-6B249019DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arquivo_modelo" sheetId="1" r:id="rId1"/>
@@ -22,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>Disciplina:</t>
   </si>
@@ -168,12 +160,75 @@
   </si>
   <si>
     <t>Ricardo Kenji Vivas Maeda</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>9.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -804,11 +859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +956,7 @@
       <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="20">
         <v>10</v>
       </c>
       <c r="D4" s="11"/>
@@ -911,12 +966,12 @@
       <c r="F4" s="9">
         <v>10</v>
       </c>
-      <c r="G4" s="9">
-        <v>9.6</v>
+      <c r="G4" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="9">
-        <v>9.6</v>
+      <c r="I4" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="J4" s="12">
         <v>10</v>
@@ -936,22 +991,22 @@
       <c r="B5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="17">
-        <v>2.5</v>
+      <c r="C5" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12">
         <v>10</v>
       </c>
-      <c r="F5" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>9.6</v>
+      <c r="F5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="9">
-        <v>9.6</v>
+      <c r="I5" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="J5" s="12">
         <v>10</v>
@@ -971,22 +1026,22 @@
       <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="17">
-        <v>5.7</v>
+      <c r="C6" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12">
         <v>8</v>
       </c>
-      <c r="F6" s="9">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G6" s="9">
-        <v>9.6</v>
+      <c r="F6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="9">
-        <v>9.6</v>
+      <c r="I6" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="J6" s="12">
         <v>9</v>
@@ -1006,7 +1061,7 @@
       <c r="B7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="20">
         <v>10</v>
       </c>
       <c r="D7" s="11"/>
@@ -1016,12 +1071,12 @@
       <c r="F7" s="9">
         <v>10</v>
       </c>
-      <c r="G7" s="9">
-        <v>9.6999999999999993</v>
+      <c r="G7" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="9">
-        <v>9.6999999999999993</v>
+      <c r="I7" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="J7" s="12">
         <v>10</v>
@@ -1041,15 +1096,15 @@
       <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="17">
-        <v>6.5</v>
+      <c r="C8" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="12">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F8" s="9">
-        <v>9.6</v>
+      <c r="E8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="G8" s="9">
         <v>10</v>
@@ -1058,8 +1113,8 @@
       <c r="I8" s="9">
         <v>10</v>
       </c>
-      <c r="J8" s="12">
-        <v>8.6999999999999993</v>
+      <c r="J8" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="14"/>
@@ -1076,7 +1131,7 @@
       <c r="B9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="20">
         <v>10</v>
       </c>
       <c r="E9" s="12">
@@ -1106,11 +1161,11 @@
       <c r="B10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="20">
         <v>8</v>
       </c>
-      <c r="E10" s="12">
-        <v>9.6</v>
+      <c r="E10" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="F10" s="9">
         <v>2</v>
@@ -1121,8 +1176,8 @@
       <c r="I10" s="9">
         <v>10</v>
       </c>
-      <c r="J10" s="12">
-        <v>9.6</v>
+      <c r="J10" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
@@ -1136,7 +1191,7 @@
       <c r="B11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="20">
         <v>10</v>
       </c>
       <c r="E11" s="12">
@@ -1166,7 +1221,7 @@
       <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="20">
         <v>10</v>
       </c>
       <c r="E12" s="12">
@@ -1196,8 +1251,8 @@
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17">
-        <v>7.5</v>
+      <c r="C13" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="12">
         <v>8</v>
@@ -1205,11 +1260,11 @@
       <c r="F13" s="9">
         <v>10</v>
       </c>
-      <c r="G13" s="9">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I13" s="9">
-        <v>9.8000000000000007</v>
+      <c r="G13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J13" s="12">
         <v>8</v>
@@ -1226,8 +1281,8 @@
       <c r="B14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="17">
-        <v>4.5</v>
+      <c r="C14" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="E14" s="12">
         <v>10</v>
@@ -1235,11 +1290,11 @@
       <c r="F14" s="9">
         <v>10</v>
       </c>
-      <c r="G14" s="9">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I14" s="9">
-        <v>9.3000000000000007</v>
+      <c r="G14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J14" s="12">
         <v>10</v>
@@ -1256,11 +1311,11 @@
       <c r="B15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="20">
         <v>3</v>
       </c>
-      <c r="E15" s="12">
-        <v>6.7</v>
+      <c r="E15" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F15" s="9">
         <v>10</v>
@@ -1271,8 +1326,8 @@
       <c r="I15" s="9">
         <v>2</v>
       </c>
-      <c r="J15" s="12">
-        <v>6.7</v>
+      <c r="J15" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="15"/>
@@ -1286,14 +1341,14 @@
       <c r="B16" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="17">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E16" s="12">
-        <v>8.9</v>
-      </c>
-      <c r="F16" s="9">
-        <v>9.6</v>
+      <c r="C16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="G16" s="9">
         <v>6</v>
@@ -1301,8 +1356,8 @@
       <c r="I16" s="9">
         <v>6</v>
       </c>
-      <c r="J16" s="12">
-        <v>8.9</v>
+      <c r="J16" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="15"/>
@@ -1316,23 +1371,23 @@
       <c r="B17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="22">
-        <v>8.5</v>
-      </c>
-      <c r="E17" s="12">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F17" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="G17" s="9">
-        <v>6.7</v>
-      </c>
-      <c r="I17" s="9">
-        <v>6.7</v>
-      </c>
-      <c r="J17" s="12">
-        <v>8.6999999999999993</v>
+      <c r="C17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
@@ -1346,8 +1401,8 @@
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17">
-        <v>7.5</v>
+      <c r="C18" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="12">
         <v>10</v>
@@ -1376,11 +1431,11 @@
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="17">
-        <v>7.8</v>
-      </c>
-      <c r="E19" s="12">
-        <v>8.6999999999999993</v>
+      <c r="C19" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="F19" s="9">
         <v>9</v>
@@ -1391,8 +1446,8 @@
       <c r="I19" s="9">
         <v>8</v>
       </c>
-      <c r="J19" s="12">
-        <v>8.6999999999999993</v>
+      <c r="J19" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="15"/>
@@ -1406,23 +1461,23 @@
       <c r="B20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="17">
-        <v>8.6</v>
-      </c>
-      <c r="E20" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="F20" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="G20" s="9">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I20" s="9">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J20" s="12">
-        <v>5.2</v>
+      <c r="C20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="15"/>
@@ -1436,23 +1491,23 @@
       <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="23">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E21" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="F21" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="G21" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="I21" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="J21" s="12">
-        <v>9.6</v>
+      <c r="C21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="15"/>
@@ -1466,23 +1521,23 @@
       <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="17">
-        <v>10</v>
-      </c>
-      <c r="E22" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="F22" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="G22" s="9">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I22" s="9">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J22" s="12">
-        <v>7.5</v>
+      <c r="C22" s="20">
+        <v>10</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="15"/>
@@ -1496,7 +1551,7 @@
       <c r="B23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="20">
         <v>5</v>
       </c>
       <c r="E23" s="12">
@@ -1505,11 +1560,11 @@
       <c r="F23" s="9">
         <v>10</v>
       </c>
-      <c r="G23" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="I23" s="9">
-        <v>8.5</v>
+      <c r="G23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="J23" s="12">
         <v>2</v>
@@ -1526,23 +1581,23 @@
       <c r="B24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="20">
         <v>5</v>
       </c>
-      <c r="E24" s="12">
-        <v>7.8</v>
+      <c r="E24" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="F24" s="9">
         <v>10</v>
       </c>
-      <c r="G24" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="I24" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="J24" s="12">
-        <v>7.8</v>
+      <c r="G24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="15"/>
@@ -1556,7 +1611,7 @@
       <c r="B25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="20">
         <v>10</v>
       </c>
       <c r="E25" s="12">
@@ -1586,7 +1641,7 @@
       <c r="B26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="20">
         <v>8</v>
       </c>
       <c r="E26" s="12">
@@ -1595,11 +1650,11 @@
       <c r="F26" s="9">
         <v>10</v>
       </c>
-      <c r="G26" s="9">
-        <v>3.8</v>
-      </c>
-      <c r="I26" s="9">
-        <v>3.8</v>
+      <c r="G26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J26" s="12">
         <v>10</v>
@@ -1616,8 +1671,8 @@
       <c r="B27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="17">
-        <v>6.7</v>
+      <c r="C27" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E27" s="12">
         <v>8</v>
@@ -1625,11 +1680,11 @@
       <c r="F27" s="9">
         <v>9</v>
       </c>
-      <c r="G27" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="I27" s="9">
-        <v>8.5</v>
+      <c r="G27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="J27" s="12">
         <v>8</v>
@@ -1646,23 +1701,23 @@
       <c r="B28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="23">
-        <v>6.7</v>
-      </c>
-      <c r="E28" s="12">
-        <v>7.5</v>
+      <c r="C28" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="F28" s="9">
         <v>6</v>
       </c>
-      <c r="G28" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="I28" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="J28" s="12">
-        <v>7.5</v>
+      <c r="G28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="15"/>
@@ -1676,23 +1731,23 @@
       <c r="B29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="E29" s="12">
-        <v>6.7</v>
-      </c>
-      <c r="F29" s="9">
-        <v>6.7</v>
-      </c>
-      <c r="G29" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="I29" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="J29" s="12">
-        <v>6.7</v>
+      <c r="C29" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="15"/>
@@ -1706,23 +1761,23 @@
       <c r="B30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="E30" s="12">
-        <v>6.9</v>
-      </c>
-      <c r="F30" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="G30" s="9">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I30" s="9">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J30" s="12">
-        <v>6.9</v>
+      <c r="C30" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="15"/>
@@ -1736,7 +1791,7 @@
       <c r="B31" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="20">
         <v>10</v>
       </c>
       <c r="E31" s="12">
@@ -1745,11 +1800,11 @@
       <c r="F31" s="9">
         <v>10</v>
       </c>
-      <c r="G31" s="9">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I31" s="9">
-        <v>9.8000000000000007</v>
+      <c r="G31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J31" s="12">
         <v>10</v>
@@ -1766,23 +1821,23 @@
       <c r="B32" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="17">
-        <v>6.7</v>
-      </c>
-      <c r="E32" s="12">
-        <v>2.8</v>
+      <c r="C32" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="F32" s="9">
         <v>5</v>
       </c>
-      <c r="G32" s="9">
-        <v>9.9</v>
-      </c>
-      <c r="I32" s="9">
-        <v>9.9</v>
-      </c>
-      <c r="J32" s="12">
-        <v>2.8</v>
+      <c r="G32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="15"/>
@@ -1796,7 +1851,7 @@
       <c r="B33" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="20">
         <v>8</v>
       </c>
       <c r="E33" s="12">
@@ -1820,8 +1875,8 @@
       <c r="Q33" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C3">
-    <sortState ref="A4:C33">
+  <autoFilter ref="A3:C3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C33">
       <sortCondition ref="B3"/>
     </sortState>
   </autoFilter>
@@ -1840,6 +1895,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010050BD0005AFC9664893A9CC4424F40713" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="877a72e9a4c658caaa8c276e33db70ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1da97ad-02fe-4b5a-8bbb-dedcb0dc29e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a72efdfa2bdb97ef14208629b9853d9" ns2:_="">
     <xsd:import namespace="c1da97ad-02fe-4b5a-8bbb-dedcb0dc29e4"/>
@@ -2015,15 +2079,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FBAAF4B-94D6-41F5-AA7B-35A5055FCE23}">
   <ds:schemaRefs>
@@ -2034,6 +2089,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1115969-778D-4E27-94D3-60C86158E358}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA42BB7-8623-4C0C-A922-CA65A44AA9E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2049,12 +2112,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1115969-778D-4E27-94D3-60C86158E358}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/JoinTech/notas_planilha_modelo2.xlsx
+++ b/JoinTech/notas_planilha_modelo2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giofr\Desktop\ctp desafio\CTP-1\JoinTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E958EF6-90C6-4543-B59E-6B249019DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A92F8F9-B5CC-40E9-B6FC-B6E894BEC090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
   <si>
     <t>Disciplina:</t>
   </si>
@@ -222,7 +222,7 @@
     <t>3.8</t>
   </si>
   <si>
-    <t>9.9</t>
+    <t>1.8</t>
   </si>
 </sst>
 </file>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,20 +996,20 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>54</v>
+      <c r="G5" s="9">
+        <v>0</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="9" t="s">
-        <v>54</v>
+      <c r="I5" s="9">
+        <v>1</v>
       </c>
       <c r="J5" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="14"/>
@@ -1312,22 +1312,22 @@
         <v>25</v>
       </c>
       <c r="C15" s="20">
-        <v>3</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="9">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="G15" s="9">
         <v>2</v>
       </c>
       <c r="I15" s="9">
-        <v>2</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="15"/>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="C23" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23" s="12">
         <v>2</v>
       </c>
       <c r="F23" s="9">
-        <v>10</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
       </c>
       <c r="J23" s="12">
         <v>2</v>
@@ -1642,10 +1642,10 @@
         <v>35</v>
       </c>
       <c r="C26" s="20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E26" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F26" s="9">
         <v>10</v>
@@ -1656,8 +1656,8 @@
       <c r="I26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="12">
-        <v>10</v>
+      <c r="J26" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="15"/>
@@ -1822,7 +1822,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>58</v>
@@ -1830,11 +1830,11 @@
       <c r="F32" s="9">
         <v>5</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>64</v>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>58</v>
@@ -1889,12 +1889,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1903,7 +1897,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010050BD0005AFC9664893A9CC4424F40713" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="877a72e9a4c658caaa8c276e33db70ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1da97ad-02fe-4b5a-8bbb-dedcb0dc29e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a72efdfa2bdb97ef14208629b9853d9" ns2:_="">
     <xsd:import namespace="c1da97ad-02fe-4b5a-8bbb-dedcb0dc29e4"/>
@@ -2079,16 +2073,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FBAAF4B-94D6-41F5-AA7B-35A5055FCE23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1115969-778D-4E27-94D3-60C86158E358}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2096,7 +2087,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA42BB7-8623-4C0C-A922-CA65A44AA9E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2112,4 +2103,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FBAAF4B-94D6-41F5-AA7B-35A5055FCE23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>